--- a/03_design/結合テスト仕様書(盤-マス)_第三反復.xlsx
+++ b/03_design/結合テスト仕様書(盤-マス)_第三反復.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ミニプロジェクト\zero1_newProject\03_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ミニプロgit(マイン\zero1_newProject\03_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE215D-ABE7-4EC4-B154-861BAD337B53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA5AFB-DC9D-45DD-BF64-DF2F11D1A344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="2580" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="660" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォーマット" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -480,6 +480,45 @@
     <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>00122
+001mm
+11122
+m1000
+11000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0002m32110
+0002mm2m10
+1101223342
+m111112mmm
+221m11m553
+m111123mm2
+220123m33m
+m102mm2222
+1102m311m1
+0001110111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0001122m212mm10
+0002m3m34m32210
+1113m423mm20122
+1m24m32m42113mm
+34m4m32m2112mmm
+mm33m21122m2232
+4m2112223m42100
+m22222mm3m3m100
+222mm3332121100
+2m3454m10112110
+m33mmm3212m2m10
+m22m54m11m22110
+11112m222321111
+22101233m2m23m3
+mm1001mm222m3mm</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -761,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,15 +867,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,9 +904,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,8 +1249,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:S11"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9:AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1222,104 +1264,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1507,20 +1549,22 @@
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="20" t="b">
+        <v>1</v>
+      </c>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="24"/>
+      <c r="AD7" s="22"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
-      <c r="AH7" s="24"/>
+      <c r="AH7" s="22"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
-      <c r="AL7" s="33"/>
+      <c r="AL7" s="24"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
@@ -1561,20 +1605,22 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="AD8" s="22"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
+      <c r="AH8" s="22"/>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
+      <c r="AL8" s="24"/>
       <c r="AM8" s="14"/>
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
@@ -1583,7 +1629,7 @@
       <c r="AR8" s="14"/>
       <c r="AS8" s="15"/>
     </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:45" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
@@ -1615,20 +1661,22 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
+      <c r="AD9" s="22"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
+      <c r="AH9" s="22"/>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
+      <c r="AL9" s="24"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="14"/>
@@ -1637,7 +1685,7 @@
       <c r="AR9" s="14"/>
       <c r="AS9" s="15"/>
     </row>
-    <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:45" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
@@ -1669,20 +1717,22 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
+      <c r="AD10" s="22"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
+      <c r="AH10" s="22"/>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="AL10" s="24"/>
       <c r="AM10" s="14"/>
       <c r="AN10" s="14"/>
       <c r="AO10" s="14"/>
@@ -1691,7 +1741,7 @@
       <c r="AR10" s="14"/>
       <c r="AS10" s="15"/>
     </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:45" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
@@ -1723,20 +1773,22 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
+      <c r="AD11" s="22"/>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
+      <c r="AH11" s="22"/>
       <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
+      <c r="AL11" s="24"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="14"/>
@@ -1976,50 +2028,50 @@
       <c r="AS16" s="15"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -2151,102 +2203,102 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2863,50 +2915,50 @@
       <c r="AS16" s="15"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -3017,6 +3069,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -3200,7 +3258,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3209,13 +3267,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A9535A-B843-43F3-9E2E-7B35A70B0C94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3233,26 +3301,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>